--- a/assets/board_pade/figure3.xlsx
+++ b/assets/board_pade/figure3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apolia01\dash_page\assets\board_pade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568A26A-19B1-4381-BC23-114D04F1241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F993C46-9483-40BC-9DE9-62E333EF654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>neyntral</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>itc.ua</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -627,12 +627,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,7 +998,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>27025</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>9088</v>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3376</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1760</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C6">
         <v>2407</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>17353</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>5506</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2926</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>580</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>206</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <v>62443.590000000004</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>29817.920000000002</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C14" s="5">
         <v>13014.87</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5">
         <v>2463</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5">
         <v>1919.6999999999998</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>2122</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>195</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>393</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>218</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>131</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5">
         <v>12886.439999999999</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="5">
         <v>2945.76</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5">
         <v>857.54000000000008</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="5">
         <v>181.01999999999998</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5">
         <v>110.58</v>
@@ -1459,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3">
         <v>0.42</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9">
         <v>0.38</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9">
         <v>0.53</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9">
         <v>0.42</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9">
         <v>0.38</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <f>B1*$E1</f>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ref="B9:D9" si="1">B2*$E2</f>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ref="B10:D10" si="2">B3*$E3</f>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:D12" si="3">B4*$E4</f>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4">
         <f>B5*$E5</f>
